--- a/Database/Campean/Ploturi/Waze.xlsx
+++ b/Database/Campean/Ploturi/Waze.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Campean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Campean\Ploturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F02E2-9012-4626-8B11-E0759E3894A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444E062-2944-43E7-A3D8-9AA982E5B7CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="4220" windowWidth="26690" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="2150" windowWidth="30430" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,11 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -456,18 +455,12 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
     <col min="9" max="9" width="11.1796875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -613,7 +606,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43890</v>
       </c>
       <c r="B3">
@@ -639,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1270,7 +1263,7 @@
       <c r="G27">
         <v>34</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1463,7 +1456,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B35">
@@ -2610,7 +2603,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>43966</v>
       </c>
       <c r="B79">
@@ -2639,7 +2632,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>43967</v>
       </c>
       <c r="B80">
@@ -4526,5 +4519,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>